--- a/medicine/Soins infirmiers et profession infirmière/Almaviva_Santé/Almaviva_Santé.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Almaviva_Santé/Almaviva_Santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Almaviva_Sant%C3%A9</t>
+          <t>Almaviva_Santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Almaviva Santé est le 4e plus important groupe de cliniques privées en France. Il est détenu à 60 % par le fonds koweitien Wren House Infrastructure et 16 % par Bpifrance (Banque publique d'investissement)[1].
-En 2021, Almaviva Santé regroupe 41 établissements privés dont 17 en région Provence-Alpes-Côte d'Azur, 19 en Ile-de-France et 5 en Corse[2]. Il gère 41 établissements privés, emploie 5 100 salariés et est partenaire de 1 800 médecins libéraux[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Almaviva Santé est le 4e plus important groupe de cliniques privées en France. Il est détenu à 60 % par le fonds koweitien Wren House Infrastructure et 16 % par Bpifrance (Banque publique d'investissement).
+En 2021, Almaviva Santé regroupe 41 établissements privés dont 17 en région Provence-Alpes-Côte d'Azur, 19 en Ile-de-France et 5 en Corse. Il gère 41 établissements privés, emploie 5 100 salariés et est partenaire de 1 800 médecins libéraux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Almaviva_Sant%C3%A9</t>
+          <t>Almaviva_Santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Capital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>De 2007 à 2017, Almaviva Santé a été la propriété de UI Gestion, Gimv, Sagesse Retraite Santé (SRS de Yves Journel, propriétaire de DomusVi, 3e groupe privé d'EHPAD) et de l'équipe dirigeante[1],[4].
-De 2017 à 2021, Almaviva Santé a été détenu majoritairement par le fonds d'investissement Antin Infrastructure Partners[1].
-Depuis juillet 2021, Almaviva Santé est détenu à 60 % par le fonds koweitien Wren House Infrastructure et 16 % par Bpifrance (Banque publique d'investissement)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De 2007 à 2017, Almaviva Santé a été la propriété de UI Gestion, Gimv, Sagesse Retraite Santé (SRS de Yves Journel, propriétaire de DomusVi, 3e groupe privé d'EHPAD) et de l'équipe dirigeante,.
+De 2017 à 2021, Almaviva Santé a été détenu majoritairement par le fonds d'investissement Antin Infrastructure Partners.
+Depuis juillet 2021, Almaviva Santé est détenu à 60 % par le fonds koweitien Wren House Infrastructure et 16 % par Bpifrance (Banque publique d'investissement).</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Almaviva_Sant%C3%A9</t>
+          <t>Almaviva_Santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Présidence
-2007-2019 : Bruno Marie, ancien dirigeant du groupe Korian[5].
-2019 : Yann Coléou, ancien dirigeant du groupe Korian[6].
-Outils de gestion
-Conseil d'administration
-GIE Almaviva Santé[7]
+          <t>Présidence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2007-2019 : Bruno Marie, ancien dirigeant du groupe Korian.
+2019 : Yann Coléou, ancien dirigeant du groupe Korian.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gouvernance</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Outils de gestion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conseil d'administration
+GIE Almaviva Santé
 Administrateur: Almaviva développement
 Membres: Cliniques Almaviva (cf liste infra)
 Contrôleur des comptes: David Boisset
@@ -564,75 +617,46 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Almaviva_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2007 : Fondation du groupe Almaviva par le fonds 21 Partners (devenu 21 Invest) (Fonds 21 Centrale Partners III) et Bruno Marie, Président et fondateur, après le rachat de la clinique Chantecler de Marseille. Bruno Marie vient du groupe de maisons de retraite Medidep, devenu Korian[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2007 : Fondation du groupe Almaviva par le fonds 21 Partners (devenu 21 Invest) (Fonds 21 Centrale Partners III) et Bruno Marie, Président et fondateur, après le rachat de la clinique Chantecler de Marseille. Bruno Marie vient du groupe de maisons de retraite Medidep, devenu Korian.
 2008 : Achat des cliniques de Marignane et de Vitrolles.
 2011 : Achat de la clinique Juge de Marseille et de la clinique Axium d'Aix-en-Provence.
 2013 : Cession du groupe Almaviva par 21 Partners aux fonds Gimv et UI gestion.
-Juillet 2015: DV France (DV pour Domus Vi, groupe majeur dans le domaine des Ehpad, avec Yves Journel, principal actionnaire de DV France), Gimv, UI Gestion et les praticiens de la Clinique Arago à Paris regroupent leurs activités au sein de l’entité Almaviva Santé[9].
-2015-2017: Achat de la Clinique Arago à Paris, de Domus Cliniques et de 5 établissements en Essonne[10].
-Octobre 2017 : Antin Infrastructure Partners (AIP) achète à Gimv et UI Gestion 60 % du capital du groupe de cliniques françaises Almaviva Santé[11].
+Juillet 2015: DV France (DV pour Domus Vi, groupe majeur dans le domaine des Ehpad, avec Yves Journel, principal actionnaire de DV France), Gimv, UI Gestion et les praticiens de la Clinique Arago à Paris regroupent leurs activités au sein de l’entité Almaviva Santé.
+2015-2017: Achat de la Clinique Arago à Paris, de Domus Cliniques et de 5 établissements en Essonne.
+Octobre 2017 : Antin Infrastructure Partners (AIP) achète à Gimv et UI Gestion 60 % du capital du groupe de cliniques françaises Almaviva Santé.
 2019 : Acquisition de la clinique du Parc Monceau et de la clinique Turin à Paris.
 Juin 2019 : Yann Coléou succède à Bruno Marie comme Président du groupe Almaviva Santé.
-9 mars 2021 : Achat des cliniques Maymard en Corse[12],[13].
-27 juillet 2021 : Le fonds Koweitien Wren House Infrastructure prends 60 % des parts du groupe Almaviva Santé pour 1,5 milliard, avec Bpifrance (Banque publique d'investissement) (16 %)[1].
+9 mars 2021 : Achat des cliniques Maymard en Corse,.
+27 juillet 2021 : Le fonds Koweitien Wren House Infrastructure prends 60 % des parts du groupe Almaviva Santé pour 1,5 milliard, avec Bpifrance (Banque publique d'investissement) (16 %).
 15 décembre 2021 : Départ  des directeurs régionaux PACA David Boisset et Frédéric Reig.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Almaviva_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Chiffre d'affaires</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2017 : 300 millions d'euros[4].
-2018 : 350 millions d'euros[10].</t>
         </is>
       </c>
     </row>
@@ -642,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Almaviva_Sant%C3%A9</t>
+          <t>Almaviva_Santé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,15 +681,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Effectifs</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Salariés
-2017 : 2 600 salariés[10].
-Médecins libéraux
-2017 : 1100 médecins[10].</t>
+          <t>Chiffre d'affaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2017 : 300 millions d'euros.
+2018 : 350 millions d'euros.</t>
         </is>
       </c>
     </row>
@@ -675,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Almaviva_Sant%C3%A9</t>
+          <t>Almaviva_Santé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,14 +714,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Controverses</t>
+          <t>Effectifs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>En 2012, un médecin cardiologue a mis en cause un système de fraude concernant la facturation d’actes d’imagerie mis en place à la clinique générale de Marignane. En représailles, il a été exclu de sa société. En 2017, un courrier du cabinet du défenseur des droits reconnaissait pourtant au cardiologue la qualité de lanceur d’alerte. La direction de la clinique a rejeté toute implication dans ce système[14],[15]. En 2019, ses adversaires ont été condamnés à de lourdes peines d'interdiction d'exercice par la chambre disciplinaire nationale de l'Ordre des médecins. Cette instance a reconnu le caractère frauduleux des pratiques qu'il dénonçait. Les sanctions sont définitives, le pourvoi devant le Conseil d’État des médecins condamnés n'ayant pas été admis. Un juge d'instruction mène l'enquête sur le versant pénal[16].
-En 2019, des salariés de la clinique Turin de Paris dénoncent des dysfonctionnements et les conditions de travail[17].
-En 2021, à la suite du rachat du groupe Maymard, propriétaire de plusieurs cliniques en Corse, une mobilisation s'organise à Bastia pour s'opposer à la fermeture de la maternité de la clinique Maymard de Bastia[18].</t>
+          <t>Salariés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2017 : 2 600 salariés.</t>
         </is>
       </c>
     </row>
@@ -707,7 +735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Almaviva_Sant%C3%A9</t>
+          <t>Almaviva_Santé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -722,21 +750,164 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Effectifs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Médecins libéraux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2017 : 1100 médecins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En 2012, un médecin cardiologue a mis en cause un système de fraude concernant la facturation d’actes d’imagerie mis en place à la clinique générale de Marignane. En représailles, il a été exclu de sa société. En 2017, un courrier du cabinet du défenseur des droits reconnaissait pourtant au cardiologue la qualité de lanceur d’alerte. La direction de la clinique a rejeté toute implication dans ce système,. En 2019, ses adversaires ont été condamnés à de lourdes peines d'interdiction d'exercice par la chambre disciplinaire nationale de l'Ordre des médecins. Cette instance a reconnu le caractère frauduleux des pratiques qu'il dénonçait. Les sanctions sont définitives, le pourvoi devant le Conseil d’État des médecins condamnés n'ayant pas été admis. Un juge d'instruction mène l'enquête sur le versant pénal.
+En 2019, des salariés de la clinique Turin de Paris dénoncent des dysfonctionnements et les conditions de travail.
+En 2021, à la suite du rachat du groupe Maymard, propriétaire de plusieurs cliniques en Corse, une mobilisation s'organise à Bastia pour s'opposer à la fermeture de la maternité de la clinique Maymard de Bastia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Alpes-de-Haute-Provence
-Clinique Toutes-Aures, Manosque
-Clinique Jean Giono, Manosque
-Alpes-Maritimes
-Clinique de l'Estagnol, Antibes Juan-les-Pins
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alpes-de-Haute-Provence</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Clinique Toutes-Aures, Manosque
+Clinique Jean Giono, Manosque</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Clinique de l'Estagnol, Antibes Juan-les-Pins
 Clinique Oxford, Cannes
 Clinique du Palais, Grasse
-Clinique du Parc Impérial, Nice
-Bouches-du-Rhône
-Clinique Axium, Aix-en-Provence
+Clinique du Parc Impérial, Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bouches-du-Rhône</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Clinique Axium, Aix-en-Provence
 Clinique de l'étange de l'olivier, Istres
 Clinique chirurgicale de Marignane, Marignane
 Clinique Juge, Marseille
@@ -745,9 +916,43 @@
 Clinique Vignoli, Salon-de-Provence
 Clinique de Vitrolles, Vitrolles
 Hôpital privé La Casamance, Aubagne
-Centre d'hémodialyse de Provence, Aubagne
-Région parisienne
-Clinique Arago, Paris
+Centre d'hémodialyse de Provence, Aubagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Région parisienne</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Clinique Arago, Paris
 Clinique de l'Alma, Paris
 Clinique Sainte-Thérèse, Paris
 Clinique internationale du Parc Monceau, Paris
@@ -761,11 +966,79 @@
 Hôpital privé du Val d'Yerres, 91
 Clinique des Lilas, 93
 Clinique Boyer, 94
-Clinique Villecresnes, 94
-Eure-et-Loir
-Clinique La Boissière, Nogent-le-Phaye
-Corse
-Clinique Maymard, Bastia
+Clinique Villecresnes, 94</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Eure-et-Loir</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Clinique La Boissière, Nogent-le-Phaye</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Almaviva_Santé</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Almaviva_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Clinique Maymard, Bastia
 Clinique Filippi, Bastia
 Clinique Toga, Bastia
 Centre d'hémodialyse Sainte-Catherine, Bastia</t>
